--- a/1 Data Collection/MR_Results/SCM.xlsx
+++ b/1 Data Collection/MR_Results/SCM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>//jstags.svn.sourceforge.net</t>
   </si>
@@ -78,18 +78,48 @@
     <t>-&gt; CVS</t>
   </si>
   <si>
-    <t>-&gt;SVN</t>
-  </si>
-  <si>
-    <t>-&gt; ?SVN?</t>
+    <t>Errors of syntax</t>
+  </si>
+  <si>
+    <t>SCM Software</t>
+  </si>
+  <si>
+    <t># Of Packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Of SCM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Overall  </t>
+  </si>
+  <si>
+    <t>Number of Artifacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Artifacts with SCM </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -114,10 +144,114 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -135,170 +269,105 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-CH"/>
-  <c:style val="27"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-CH"/>
-              <a:t>SCM Used</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.66182633420822401"/>
-          <c:y val="6.4814814814814811E-2"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:explosion val="25"/>
-          <c:dLbls>
-            <c:showCatName val="1"/>
-            <c:showPercent val="1"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>svn</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>git</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cvs</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>hg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>393</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showCatName val="1"/>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,195 +655,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C3" s="10">
         <v>55291</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D3" s="18">
+        <f>C3/$C$15</f>
+        <v>0.79120517443690797</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C4" s="11">
         <v>11475</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="17">
+        <f>C4/$C$15</f>
+        <v>0.16420537477462008</v>
+      </c>
+      <c r="E4" s="12">
+        <f xml:space="preserve"> C4/$C$16</f>
+        <v>0.78644369817010484</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C5" s="6">
         <v>1599</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="D5" s="14">
+        <f>C5/$C$15</f>
+        <v>2.2881428694084313E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <f xml:space="preserve"> C5/$C$16</f>
+        <v>0.10958810225481461</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C6" s="6">
         <v>1006</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="D6" s="14">
+        <f>C6/$C$15</f>
+        <v>1.4395695601156234E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <f xml:space="preserve"> C6/$C$16</f>
+        <v>6.8946610924542531E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C7" s="7">
         <v>393</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D7" s="15">
+        <f>C7/$C$15</f>
+        <v>5.6237657765948312E-3</v>
+      </c>
+      <c r="E7" s="13">
+        <f xml:space="preserve"> C7/$C$16</f>
+        <v>2.6934411623603591E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="C8" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D8" s="17">
+        <f>C8/$C$15</f>
+        <v>7.1549182908331184E-4</v>
+      </c>
+      <c r="E8" s="9">
+        <f xml:space="preserve"> C8/$C$16</f>
+        <v>3.4267699266671238E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="C9" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="D9" s="14">
+        <f>C9/$C$15</f>
+        <v>2.8619673163332473E-4</v>
+      </c>
+      <c r="E9" s="8">
+        <f xml:space="preserve"> C9/$C$16</f>
+        <v>1.3707079706668495E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="C10" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="D10" s="14">
+        <f>C10/$C$15</f>
+        <v>2.289573853066598E-4</v>
+      </c>
+      <c r="E10" s="8">
+        <f xml:space="preserve"> C10/$C$16</f>
+        <v>1.0965663765334795E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="C11" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D11" s="14">
+        <f>C11/$C$15</f>
+        <v>8.5859019489997417E-5</v>
+      </c>
+      <c r="E11" s="8">
+        <f xml:space="preserve"> C11/$C$16</f>
+        <v>4.1121239120005482E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14">
+        <f>C12/$C$15</f>
+        <v>8.5859019489997417E-5</v>
+      </c>
+      <c r="E12" s="8">
+        <f xml:space="preserve"> C12/$C$16</f>
+        <v>4.1121239120005482E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="14">
+        <f>C13/$C$15</f>
+        <v>7.1549182908331184E-5</v>
+      </c>
+      <c r="E13" s="8">
+        <f xml:space="preserve"> C13/$C$16</f>
+        <v>3.4267699266671238E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
+      <c r="C14" s="7">
+        <f>SUM(C17:C24)</f>
+        <v>15</v>
+      </c>
+      <c r="D14" s="15">
+        <f>C14/$C$15</f>
+        <v>2.1464754872499355E-4</v>
+      </c>
+      <c r="E14" s="13">
+        <f xml:space="preserve"> C14/$C$16</f>
+        <v>1.0280309780001371E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <f>SUM(C3:C14)</f>
+        <v>69882</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(C4:C14)</f>
+        <v>14591</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="C19">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="C20">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="C23">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B23" s="3">
-        <f>SUM(B1:B19)</f>
-        <v>69882</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A1:B19">
-    <sortCondition descending="1" ref="B1:B19"/>
+  <sortState ref="B1:C19">
+    <sortCondition descending="1" ref="C1:C19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
